--- a/results/mp/logistic/corona/confidence/210/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>crude</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -97,15 +94,18 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
@@ -124,88 +124,94 @@
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>friend</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>ready</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>like</t>
@@ -214,91 +220,73 @@
     <t>gt</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>boost</t>
+    <t>care</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
+    <t>?</t>
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -656,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,7 +655,7 @@
         <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -743,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>34</v>
@@ -799,13 +787,13 @@
         <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -817,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -825,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7294520547945206</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -843,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -867,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -893,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -917,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -925,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -943,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -967,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -975,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5789473684210527</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -993,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1017,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1025,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5600000000000001</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1043,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1067,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1099,13 +1087,13 @@
         <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.828125</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1117,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1125,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4864864864864865</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,13 +1137,13 @@
         <v>42</v>
       </c>
       <c r="K11">
-        <v>0.839622641509434</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="M11">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1167,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1175,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1193,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1217,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1225,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.455026455026455</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C13">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1243,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8198433420365535</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>314</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1267,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4067796610169492</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1293,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>336</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1317,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1325,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3624031007751938</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C15">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1343,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1367,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1387,13 @@
         <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7926829268292683</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1417,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1425,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2745098039215687</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1443,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7875</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L17">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1467,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1475,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2727272727272727</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1493,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1517,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1525,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2147651006711409</v>
+        <v>0.125</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1543,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>117</v>
+        <v>315</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7605633802816901</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1567,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1575,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1472222222222222</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="C20">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1593,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1617,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1625,37 +1613,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.09126984126984126</v>
+        <v>0.008853288364249579</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>229</v>
+        <v>2351</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1667,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1675,37 +1663,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.03753351206434316</v>
+        <v>0.006092254134029591</v>
       </c>
       <c r="C22">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>359</v>
+        <v>2284</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7446808510638298</v>
+        <v>0.7625</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1717,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1725,37 +1713,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01268498942917548</v>
+        <v>0.005806451612903226</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="F23">
-        <v>0.6799999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2335</v>
+        <v>3082</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1767,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1775,37 +1763,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007736943907156673</v>
+        <v>0.005303030303030303</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>0.17</v>
+        <v>0.7</v>
       </c>
       <c r="F24">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3078</v>
+        <v>2626</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K24">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1817,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1825,37 +1813,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005262132137984798</v>
+        <v>0.005056398288603656</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E25">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="F25">
-        <v>0.4399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5104</v>
+        <v>5116</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1867,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1875,37 +1863,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.004887130556202001</v>
+        <v>0.00372873456070846</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K26">
-        <v>0.717948717948718</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1917,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1925,37 +1913,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.003627569528415961</v>
+        <v>0.002823149828594475</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="F27">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4944</v>
+        <v>4945</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1967,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1975,13 +1963,13 @@
         <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6976744186046512</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +1989,13 @@
         <v>60</v>
       </c>
       <c r="K29">
-        <v>0.696969696969697</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2019,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,13 +2015,13 @@
         <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6818181818181818</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2045,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2053,13 +2041,13 @@
         <v>62</v>
       </c>
       <c r="K31">
-        <v>0.66</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2071,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2079,13 +2067,13 @@
         <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6507936507936508</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2097,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2105,13 +2093,13 @@
         <v>64</v>
       </c>
       <c r="K33">
-        <v>0.6294117647058823</v>
+        <v>0.64</v>
       </c>
       <c r="L33">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2123,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2131,13 +2119,13 @@
         <v>65</v>
       </c>
       <c r="K34">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2149,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2157,13 +2145,13 @@
         <v>66</v>
       </c>
       <c r="K35">
-        <v>0.5857142857142857</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2175,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2183,13 +2171,13 @@
         <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5851063829787234</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2201,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2209,13 +2197,13 @@
         <v>68</v>
       </c>
       <c r="K37">
-        <v>0.5833333333333334</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2227,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2235,13 +2223,13 @@
         <v>69</v>
       </c>
       <c r="K38">
-        <v>0.5732217573221757</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M38">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2253,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2261,13 +2249,13 @@
         <v>70</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2279,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2287,13 +2275,13 @@
         <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5661016949152542</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L40">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2305,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2313,13 +2301,13 @@
         <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5652173913043478</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2331,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2339,13 +2327,13 @@
         <v>73</v>
       </c>
       <c r="K42">
-        <v>0.5357142857142857</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2357,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2365,25 +2353,25 @@
         <v>74</v>
       </c>
       <c r="K43">
-        <v>0.5230769230769231</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L43">
+        <v>36</v>
+      </c>
+      <c r="M43">
+        <v>36</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>34</v>
-      </c>
-      <c r="M43">
-        <v>34</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2391,13 +2379,13 @@
         <v>75</v>
       </c>
       <c r="K44">
-        <v>0.5185185185185185</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2409,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2417,13 +2405,13 @@
         <v>76</v>
       </c>
       <c r="K45">
-        <v>0.5168539325842697</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2435,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2443,13 +2431,13 @@
         <v>77</v>
       </c>
       <c r="K46">
-        <v>0.4814814814814815</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2461,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2469,13 +2457,13 @@
         <v>78</v>
       </c>
       <c r="K47">
-        <v>0.4545454545454545</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2487,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2495,13 +2483,13 @@
         <v>79</v>
       </c>
       <c r="K48">
-        <v>0.4285714285714285</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2513,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2521,13 +2509,13 @@
         <v>80</v>
       </c>
       <c r="K49">
-        <v>0.4117647058823529</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2539,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2547,13 +2535,13 @@
         <v>81</v>
       </c>
       <c r="K50">
-        <v>0.3777777777777778</v>
+        <v>0.234375</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2565,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2573,13 +2561,13 @@
         <v>82</v>
       </c>
       <c r="K51">
-        <v>0.3424657534246575</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2591,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>48</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2599,25 +2587,25 @@
         <v>83</v>
       </c>
       <c r="K52">
-        <v>0.3076923076923077</v>
+        <v>0.02420701168614357</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>54</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2625,25 +2613,25 @@
         <v>84</v>
       </c>
       <c r="K53">
-        <v>0.2586206896551724</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53">
         <v>15</v>
       </c>
-      <c r="M53">
-        <v>16</v>
-      </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>43</v>
+        <v>886</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2651,25 +2639,25 @@
         <v>85</v>
       </c>
       <c r="K54">
-        <v>0.21875</v>
+        <v>0.01519756838905775</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>50</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2677,25 +2665,25 @@
         <v>86</v>
       </c>
       <c r="K55">
-        <v>0.02838063439065109</v>
+        <v>0.01484375</v>
       </c>
       <c r="L55">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N55">
-        <v>0.9399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="O55">
-        <v>0.06000000000000005</v>
+        <v>0.32</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>1164</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2703,13 +2691,13 @@
         <v>87</v>
       </c>
       <c r="K56">
-        <v>0.02559414990859232</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2721,293 +2709,189 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>533</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="K57">
-        <v>0.01319796954314721</v>
+        <v>0.01241068070703272</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="N57">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="O57">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>972</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.01069182389937107</v>
+        <v>0.01132787916928886</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N58">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="O58">
-        <v>0.1899999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="K59">
-        <v>0.01016419077404222</v>
+        <v>0.008580705009276438</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="N59">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="O59">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>1266</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.007513148009015778</v>
+        <v>0.007939824488090262</v>
       </c>
       <c r="L60">
+        <v>19</v>
+      </c>
+      <c r="M60">
         <v>20</v>
       </c>
-      <c r="M60">
-        <v>31</v>
-      </c>
       <c r="N60">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="O60">
-        <v>0.35</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2642</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K61">
-        <v>0.007197585326213141</v>
+        <v>0.007426736250501807</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N61">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="O61">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>4276</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K62">
-        <v>0.006984387838948234</v>
+        <v>0.006970069700697007</v>
       </c>
       <c r="L62">
         <v>17</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N62">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="O62">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>2417</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K63">
-        <v>0.006830052229811169</v>
+        <v>0.004475578906402024</v>
       </c>
       <c r="L63">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N63">
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="O63">
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>4944</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K64">
-        <v>0.006617360840794083</v>
-      </c>
-      <c r="L64">
-        <v>34</v>
-      </c>
-      <c r="M64">
-        <v>61</v>
-      </c>
-      <c r="N64">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O64">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="P64" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>5104</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K65">
-        <v>0.005959982971477224</v>
-      </c>
-      <c r="L65">
-        <v>14</v>
-      </c>
-      <c r="M65">
-        <v>44</v>
-      </c>
-      <c r="N65">
-        <v>0.32</v>
-      </c>
-      <c r="O65">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="P65" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K66">
-        <v>0.005657093124456049</v>
-      </c>
-      <c r="L66">
-        <v>13</v>
-      </c>
-      <c r="M66">
-        <v>24</v>
-      </c>
-      <c r="N66">
-        <v>0.54</v>
-      </c>
-      <c r="O66">
-        <v>0.46</v>
-      </c>
-      <c r="P66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K67">
-        <v>0.005434782608695652</v>
-      </c>
-      <c r="L67">
-        <v>13</v>
-      </c>
-      <c r="M67">
-        <v>15</v>
-      </c>
-      <c r="N67">
-        <v>0.87</v>
-      </c>
-      <c r="O67">
-        <v>0.13</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>2379</v>
+        <v>5116</v>
       </c>
     </row>
   </sheetData>
